--- a/cleaned_data/meta_data_comparison_old.xlsx
+++ b/cleaned_data/meta_data_comparison_old.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A437B3DA-F7FF-49B4-947B-370F6FAFC2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298D655-F56B-4AA2-8C19-6F8BE3A21A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3443,8 +3443,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BL1" sqref="BL1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B245" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L273" sqref="L273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
